--- a/tools/Data/Excels/技能配置.xlsx
+++ b/tools/Data/Excels/技能配置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>ResSkill</t>
   </si>
@@ -49,10 +49,16 @@
     <t>脚本名称</t>
   </si>
   <si>
-    <t>测试技能</t>
-  </si>
-  <si>
-    <t>testTimeline</t>
+    <t>攻击02</t>
+  </si>
+  <si>
+    <t>attack02</t>
+  </si>
+  <si>
+    <t>翻滚01</t>
+  </si>
+  <si>
+    <t>dash01</t>
   </si>
 </sst>
 </file>
@@ -60,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,12 +81,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -97,14 +133,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -113,20 +141,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -135,14 +149,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,17 +162,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,6 +192,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -187,6 +200,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -195,24 +216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,12 +233,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -245,25 +287,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,85 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,49 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +424,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -432,17 +458,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,8 +489,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,15 +506,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,10 +532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,133 +544,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,13 +1029,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
@@ -1096,6 +1102,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/tools/Data/Excels/技能配置.xlsx
+++ b/tools/Data/Excels/技能配置.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="技能配置" sheetId="1" r:id="rId1"/>
+    <sheet name="连击配置" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>ResSkill</t>
   </si>
@@ -40,6 +41,9 @@
     <t>script</t>
   </si>
   <si>
+    <t>combo</t>
+  </si>
+  <si>
     <t>技能ID</t>
   </si>
   <si>
@@ -49,16 +53,49 @@
     <t>脚本名称</t>
   </si>
   <si>
+    <t>连击</t>
+  </si>
+  <si>
     <t>攻击02</t>
   </si>
   <si>
     <t>attack02</t>
   </si>
   <si>
+    <t>攻击03</t>
+  </si>
+  <si>
+    <t>attack03</t>
+  </si>
+  <si>
+    <t>攻击04</t>
+  </si>
+  <si>
+    <t>attack04</t>
+  </si>
+  <si>
     <t>翻滚01</t>
   </si>
   <si>
     <t>dash01</t>
+  </si>
+  <si>
+    <t>ResCombo</t>
+  </si>
+  <si>
+    <t>repeated</t>
+  </si>
+  <si>
+    <t>lstSkillId</t>
+  </si>
+  <si>
+    <t>连击ID</t>
+  </si>
+  <si>
+    <t>技能列表</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
   </si>
 </sst>
 </file>
@@ -66,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,7 +118,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,7 +126,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,45 +147,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,63 +217,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,55 +270,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,121 +390,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +461,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,7 +533,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,62 +556,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,133 +581,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,22 +1066,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,8 +1094,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1068,8 +1108,11 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1079,38 +1122,69 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:5">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" s="1" customFormat="1" spans="2:4">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:4">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1118,4 +1192,70 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.75" style="1" customWidth="1"/>
+    <col min="4" max="16382" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="2:3">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="2:3">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:3">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/tools/Data/Excels/技能配置.xlsx
+++ b/tools/Data/Excels/技能配置.xlsx
@@ -14,8 +14,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1:默认
+2:输入方向</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>ResSkill</t>
   </si>
@@ -38,6 +61,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>targetSelector</t>
+  </si>
+  <si>
     <t>script</t>
   </si>
   <si>
@@ -50,6 +76,9 @@
     <t>技能名称</t>
   </si>
   <si>
+    <t>技能目标选择器</t>
+  </si>
+  <si>
     <t>脚本名称</t>
   </si>
   <si>
@@ -77,7 +106,7 @@
     <t>翻滚01</t>
   </si>
   <si>
-    <t>dash01</t>
+    <t>dodge01</t>
   </si>
   <si>
     <t>ResCombo</t>
@@ -104,11 +133,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +289,11 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -270,31 +304,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,151 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,145 +603,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,22 +1100,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,8 +1132,11 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1106,13 +1144,16 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1125,72 +1166,91 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:6">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:4">
+    <row r="6" s="1" customFormat="1" spans="2:5">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="2:4">
+    <row r="7" s="1" customFormat="1" spans="2:5">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:5">
       <c r="B8" s="1">
         <v>1001</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1212,13 +1272,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="2:3">
@@ -1234,15 +1294,15 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:3">
@@ -1250,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1"/>

--- a/tools/Data/Excels/技能配置.xlsx
+++ b/tools/Data/Excels/技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>ResSkill</t>
   </si>
@@ -85,6 +85,42 @@
     <t>连击</t>
   </si>
   <si>
+    <t>主角连击1</t>
+  </si>
+  <si>
+    <t>normal_attack01</t>
+  </si>
+  <si>
+    <t>主角连击2</t>
+  </si>
+  <si>
+    <t>normal_attack02</t>
+  </si>
+  <si>
+    <t>主角连击3</t>
+  </si>
+  <si>
+    <t>normal_attack03</t>
+  </si>
+  <si>
+    <t>主角技能1</t>
+  </si>
+  <si>
+    <t>skill1</t>
+  </si>
+  <si>
+    <t>主角技能2</t>
+  </si>
+  <si>
+    <t>skill2</t>
+  </si>
+  <si>
+    <t>翻滚01</t>
+  </si>
+  <si>
+    <t>dodge01</t>
+  </si>
+  <si>
     <t>攻击02</t>
   </si>
   <si>
@@ -103,12 +139,6 @@
     <t>attack04</t>
   </si>
   <si>
-    <t>翻滚01</t>
-  </si>
-  <si>
-    <t>dodge01</t>
-  </si>
-  <si>
     <t>ResCombo</t>
   </si>
   <si>
@@ -124,7 +154,10 @@
     <t>技能列表</t>
   </si>
   <si>
-    <t>1,2,3</t>
+    <t>1,3,2</t>
+  </si>
+  <si>
+    <t>1002,1003,1004</t>
   </si>
 </sst>
 </file>
@@ -132,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -147,6 +180,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -155,7 +225,75 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,122 +307,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,187 +337,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,45 +528,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -552,22 +546,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,8 +579,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,10 +636,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,141 +648,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1100,19 +1136,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1232,18 +1269,91 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" s="1" customFormat="1" spans="2:5">
       <c r="B8" s="1">
-        <v>1001</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:5">
+      <c r="B9" s="1">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="1">
+        <v>1003</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="1">
+        <v>1004</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1257,35 +1367,36 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
     <col min="4" max="16382" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1293,27 +1404,37 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1"/>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:3">
+      <c r="B6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:3">
+      <c r="C7" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/tools/Data/Excels/技能配置.xlsx
+++ b/tools/Data/Excels/技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
     <t>技能列表</t>
   </si>
   <si>
-    <t>1,3,2</t>
+    <t>1,2,3</t>
   </si>
   <si>
     <t>1002,1003,1004</t>
@@ -165,9 +165,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -194,6 +194,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -201,76 +238,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,6 +292,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -337,187 +337,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,36 +528,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,11 +546,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,6 +590,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -636,10 +636,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,133 +648,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,8 +1138,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1369,8 +1369,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>

--- a/tools/Data/Excels/技能配置.xlsx
+++ b/tools/Data/Excels/技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,24 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>1:默认
-2:输入方向</t>
+          <t>1:默认陆地单位
+2:陆地浮空单位</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技能只能在对于的状态下才能释放
+1:陆地
+2:空中
+3：陆地与空中</t>
         </r>
       </text>
     </comment>
@@ -38,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>ResSkill</t>
   </si>
@@ -55,6 +71,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -67,9 +86,21 @@
     <t>script</t>
   </si>
   <si>
+    <t>cd</t>
+  </si>
+  <si>
     <t>combo</t>
   </si>
   <si>
+    <t>casterState</t>
+  </si>
+  <si>
+    <t>inGroundReplace</t>
+  </si>
+  <si>
+    <t>inAirReplace</t>
+  </si>
+  <si>
     <t>技能ID</t>
   </si>
   <si>
@@ -82,9 +113,21 @@
     <t>脚本名称</t>
   </si>
   <si>
+    <t>技能cd</t>
+  </si>
+  <si>
     <t>连击</t>
   </si>
   <si>
+    <t>技能释放的状态限制</t>
+  </si>
+  <si>
+    <t>在陆地上释放该技能时，替换技能</t>
+  </si>
+  <si>
+    <t>在空中上释放该技能时，替换技能</t>
+  </si>
+  <si>
     <t>主角连击1</t>
   </si>
   <si>
@@ -103,6 +146,18 @@
     <t>normal_attack03</t>
   </si>
   <si>
+    <t>主角空中连击1</t>
+  </si>
+  <si>
+    <t>air_attack01</t>
+  </si>
+  <si>
+    <t>主角空中连击2</t>
+  </si>
+  <si>
+    <t>air_attack02</t>
+  </si>
+  <si>
     <t>主角技能1</t>
   </si>
   <si>
@@ -115,6 +170,12 @@
     <t>skill2</t>
   </si>
   <si>
+    <t>主角技能3</t>
+  </si>
+  <si>
+    <t>skill3</t>
+  </si>
+  <si>
     <t>翻滚01</t>
   </si>
   <si>
@@ -139,6 +200,9 @@
     <t>attack04</t>
   </si>
   <si>
+    <t>普攻</t>
+  </si>
+  <si>
     <t>ResCombo</t>
   </si>
   <si>
@@ -155,6 +219,9 @@
   </si>
   <si>
     <t>1,2,3</t>
+  </si>
+  <si>
+    <t>6,7</t>
   </si>
   <si>
     <t>1002,1003,1004</t>
@@ -165,12 +232,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,7 +247,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,14 +368,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,58 +376,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,50 +391,9 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -337,187 +410,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,26 +619,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,17 +687,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,10 +709,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,133 +721,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,24 +1209,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="6" max="7" width="13.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="31.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,8 +1247,20 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:6">
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1187,173 +1274,349 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:6">
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="2:5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:8">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:5">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:8">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:5">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:8">
       <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:8">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:8">
+      <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="2:5">
-      <c r="B9" s="1">
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:8">
+      <c r="B11" s="1">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="1">
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:8">
+      <c r="B12" s="1">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="1">
         <v>1001</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="1">
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="1">
         <v>1002</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
         <v>1001</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="1">
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="1">
         <v>1003</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="1">
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="1">
         <v>1004</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:10">
+      <c r="B17" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1367,13 +1630,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
@@ -1383,13 +1646,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="2:3">
@@ -1402,18 +1665,18 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:3">
@@ -1421,19 +1684,27 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:3">
       <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:3">
+      <c r="B7" s="1">
         <v>1001</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:3">
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:3">
+      <c r="C8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tools/Data/Excels/技能配置.xlsx
+++ b/tools/Data/Excels/技能配置.xlsx
@@ -28,8 +28,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>1:默认陆地单位
-2:陆地浮空单位</t>
+          <t>1:默认选择器（无目标、目标方向为当前面向、目标位置为当前位置）
+2:输入方向选择器（无目标、目标方向为当前输入方向、目标位置为当前位置）</t>
         </r>
       </text>
     </comment>
@@ -170,7 +170,7 @@
     <t>skill2</t>
   </si>
   <si>
-    <t>主角技能3</t>
+    <t>主角挑空</t>
   </si>
   <si>
     <t>skill3</t>
@@ -232,10 +232,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -247,7 +247,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,72 +375,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -335,58 +383,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,19 +410,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,61 +560,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,97 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,30 +622,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -659,6 +635,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,17 +678,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,10 +709,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,133 +721,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1212,7 +1212,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1603,12 +1603,9 @@
       <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
       <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="1"/>
       <c r="H17" s="1">
         <v>3</v>
       </c>
@@ -1633,7 +1630,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>

--- a/tools/Data/Excels/技能配置.xlsx
+++ b/tools/Data/Excels/技能配置.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置" sheetId="1" r:id="rId1"/>
     <sheet name="连击配置" sheetId="2" r:id="rId2"/>
+    <sheet name="技能释放规则" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>ResSkill</t>
   </si>
@@ -225,6 +226,27 @@
   </si>
   <si>
     <t>1002,1003,1004</t>
+  </si>
+  <si>
+    <t>ResSkillRule</t>
+  </si>
+  <si>
+    <t>skillId</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>条件值</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -232,10 +254,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -247,13 +269,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -267,22 +282,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,6 +298,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -304,18 +374,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,64 +398,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,31 +432,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,43 +570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,25 +588,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,73 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,22 +641,50 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,46 +708,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,10 +731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,133 +743,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1211,8 +1233,8 @@
   <sheetPr/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1630,7 +1652,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="C7" sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1707,4 +1729,114 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="5" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/tools/Data/Excels/技能配置.xlsx
+++ b/tools/Data/Excels/技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,19 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>参考目标过滤配置</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>ResSkill</t>
   </si>
@@ -84,6 +96,9 @@
     <t>targetSelector</t>
   </si>
   <si>
+    <t>targetFitlerId</t>
+  </si>
+  <si>
     <t>script</t>
   </si>
   <si>
@@ -202,6 +217,12 @@
   </si>
   <si>
     <t>普攻</t>
+  </si>
+  <si>
+    <t>怪物技能</t>
+  </si>
+  <si>
+    <t>m_attack02</t>
   </si>
   <si>
     <t>ResCombo</t>
@@ -254,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -276,7 +297,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,126 +419,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -417,11 +443,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -432,49 +453,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,13 +603,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,115 +633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,21 +644,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -660,16 +666,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,15 +703,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -723,6 +711,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -731,10 +752,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,7 +764,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,124 +773,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1231,10 +1252,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1242,15 +1263,15 @@
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="31.625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="31.625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,8 +1302,11 @@
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:10">
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1293,13 +1317,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
@@ -1310,8 +1334,11 @@
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1339,16 +1366,19 @@
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
@@ -1368,274 +1398,336 @@
       <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="2:8">
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:9">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:8">
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:9">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="2:8">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:9">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1">
         <v>1.5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
       </c>
       <c r="H8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="2:8">
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:9">
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="2:8">
+    <row r="10" s="1" customFormat="1" spans="2:9">
       <c r="B10" s="1">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:8">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:9">
       <c r="B11" s="1">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="2:8">
+    <row r="12" s="1" customFormat="1" spans="2:9">
       <c r="B12" s="1">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="1">
         <v>1001</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="1">
         <v>1002</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>1001</v>
       </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="1">
         <v>1003</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="1">
         <v>1004</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="2:10">
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:11">
       <c r="B17" s="1">
         <v>10001</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="1">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>3</v>
       </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
       <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:9">
+      <c r="B18" s="1">
+        <v>50001</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1665,13 +1757,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="2:3">
@@ -1687,15 +1779,15 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:3">
@@ -1703,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:3">
@@ -1711,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:3">
@@ -1719,7 +1811,7 @@
         <v>1001</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="3:3">
@@ -1736,8 +1828,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1748,13 +1840,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1784,28 +1876,28 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1814,10 +1906,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2"/>
     </row>

--- a/tools/Data/Excels/技能配置.xlsx
+++ b/tools/Data/Excels/技能配置.xlsx
@@ -290,13 +290,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -357,6 +350,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -420,29 +420,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -453,97 +453,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,85 +561,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,10 +752,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,16 +764,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,115 +782,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1255,7 +1255,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1724,7 +1724,7 @@
         <v>51</v>
       </c>
       <c r="G18" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>

--- a/tools/Data/Excels/技能配置.xlsx
+++ b/tools/Data/Excels/技能配置.xlsx
@@ -275,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -291,6 +291,135 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,133 +433,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -438,11 +443,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -453,187 +453,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,45 +644,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -697,26 +658,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,8 +680,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,10 +752,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,133 +764,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1255,7 +1255,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
